--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Matriz de Rastreabilidade - Prestação de Serviços</t>
   </si>
@@ -116,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -171,6 +177,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +484,7 @@
   <dimension ref="C2:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +601,9 @@
         <v>1</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -617,7 +628,9 @@
         <v>2</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -626,9 +639,13 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
